--- a/medicine/Enfance/Renate_Welsh/Renate_Welsh.xlsx
+++ b/medicine/Enfance/Renate_Welsh/Renate_Welsh.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Renate Welsh (née le 22 décembre 1937 à Vienne) est une femme de lettres autrichienne.
 </t>
@@ -511,13 +523,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Renate Redtenbacher naît de parents médecins en 1937 à Vienne. Elle a quatre ans à la mort de sa mère, et elle est élevée par ses grands-parents dans la montagne autrichienne et va à l'école à Bad Aussee[1]. En 1953, elle participe à un échange scolaire et part un an aux États-Unis près de Portland dans l'Oregon.
-Elle épouse Christopher Norton Welsh et travaille pour le British Council à Vienne[1]. Elle est aussi traductrice. C'est à l'occasion d'une convalescence qu'elle commence à écrire des livres de littérature d'enfance et de jeunesse[2]. Elle a adapté certains de ses livres pour le théâtre.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Renate Redtenbacher naît de parents médecins en 1937 à Vienne. Elle a quatre ans à la mort de sa mère, et elle est élevée par ses grands-parents dans la montagne autrichienne et va à l'école à Bad Aussee. En 1953, elle participe à un échange scolaire et part un an aux États-Unis près de Portland dans l'Oregon.
+Elle épouse Christopher Norton Welsh et travaille pour le British Council à Vienne. Elle est aussi traductrice. C'est à l'occasion d'une convalescence qu'elle commence à écrire des livres de littérature d'enfance et de jeunesse. Elle a adapté certains de ses livres pour le théâtre.
 Elle est membre du jury du DIXI Kinderliteraturpreis.
-En 2020, elle est à nouveau sélectionnée pour représenter son pays, l'Autriche, pour le Prix Hans-Christian-Andersen, dans la catégorie Auteur[3], prix international danois. Elle a été sélectionnée à plusieurs reprises, et a été finaliste en 2014[3].
-De 2019 à 2023, elle est sélectionnée cinq années d'affilée pour le prestigieux prix suédois, le Prix commémoratif Astrid-Lindgren[4].
+En 2020, elle est à nouveau sélectionnée pour représenter son pays, l'Autriche, pour le Prix Hans-Christian-Andersen, dans la catégorie Auteur, prix international danois. Elle a été sélectionnée à plusieurs reprises, et a été finaliste en 2014.
+De 2019 à 2023, elle est sélectionnée cinq années d'affilée pour le prestigieux prix suédois, le Prix commémoratif Astrid-Lindgren.
 </t>
         </is>
       </c>
@@ -546,7 +560,9 @@
           <t>Œuvres traduites en français</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Le Petit Vampire (Das Vamperl, 1979), Nathan Arc-en-poche, 1981
 Philippe et sa rivière (Philip und sein Fluss), Le Centurion, 1983
@@ -581,15 +597,17 @@
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Österreichischer Kinder- und Jugendbuchpreis 1977, 1978, 1984, 1989, 1997, 2003
 Deutscher Jugendliteraturpreis 1980 pour Johanna
 Plume d'argent 1989
 Großer Preis der Deutschen Akademie für Kinder- und Jugendliteratur e. V. Volkach 2003
 Prix de la Ville de Vienne de littérature 2016
- Plusieurs sélections Autriche du Prix Hans-Christian-Andersen, dans la catégorie Auteur, dont 2020[3] ; et finaliste 2014[3].
- De 2019 à 2023, elle est sélectionnée cinq années d'affilée pour le prestigieux prix suédois, le Prix commémoratif Astrid-Lindgren[4].</t>
+ Plusieurs sélections Autriche du Prix Hans-Christian-Andersen, dans la catégorie Auteur, dont 2020 ; et finaliste 2014.
+ De 2019 à 2023, elle est sélectionnée cinq années d'affilée pour le prestigieux prix suédois, le Prix commémoratif Astrid-Lindgren.</t>
         </is>
       </c>
     </row>
